--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Pros1-Mertk.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Pros1-Mertk.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.89806302685257</v>
+        <v>15.33750333333333</v>
       </c>
       <c r="H2">
-        <v>9.89806302685257</v>
+        <v>46.01251</v>
       </c>
       <c r="I2">
-        <v>0.09871103384458031</v>
+        <v>0.1440483515229198</v>
       </c>
       <c r="J2">
-        <v>0.09871103384458031</v>
+        <v>0.1440483515229198</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.66385036226035</v>
+        <v>7.731686</v>
       </c>
       <c r="N2">
-        <v>7.66385036226035</v>
+        <v>23.195058</v>
       </c>
       <c r="O2">
-        <v>0.2007621905639899</v>
+        <v>0.1963057092861306</v>
       </c>
       <c r="P2">
-        <v>0.2007621905639899</v>
+        <v>0.1963057092861306</v>
       </c>
       <c r="Q2">
-        <v>75.85727391401984</v>
+        <v>118.5847597972867</v>
       </c>
       <c r="R2">
-        <v>75.85727391401984</v>
+        <v>1067.26283817558</v>
       </c>
       <c r="S2">
-        <v>0.01981744338747409</v>
+        <v>0.02827751381720464</v>
       </c>
       <c r="T2">
-        <v>0.01981744338747409</v>
+        <v>0.02827751381720464</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.89806302685257</v>
+        <v>15.33750333333333</v>
       </c>
       <c r="H3">
-        <v>9.89806302685257</v>
+        <v>46.01251</v>
       </c>
       <c r="I3">
-        <v>0.09871103384458031</v>
+        <v>0.1440483515229198</v>
       </c>
       <c r="J3">
-        <v>0.09871103384458031</v>
+        <v>0.1440483515229198</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.79093719811019</v>
+        <v>2.796453333333333</v>
       </c>
       <c r="N3">
-        <v>2.79093719811019</v>
+        <v>8.38936</v>
       </c>
       <c r="O3">
-        <v>0.07311137863264187</v>
+        <v>0.07100129972758389</v>
       </c>
       <c r="P3">
-        <v>0.07311137863264187</v>
+        <v>0.07100129972758387</v>
       </c>
       <c r="Q3">
-        <v>27.62487229088198</v>
+        <v>42.89061232151111</v>
       </c>
       <c r="R3">
-        <v>27.62487229088198</v>
+        <v>386.0155108936</v>
       </c>
       <c r="S3">
-        <v>0.007216899770630638</v>
+        <v>0.0102276201817432</v>
       </c>
       <c r="T3">
-        <v>0.007216899770630638</v>
+        <v>0.01022762018174319</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.89806302685257</v>
+        <v>15.33750333333333</v>
       </c>
       <c r="H4">
-        <v>9.89806302685257</v>
+        <v>46.01251</v>
       </c>
       <c r="I4">
-        <v>0.09871103384458031</v>
+        <v>0.1440483515229198</v>
       </c>
       <c r="J4">
-        <v>0.09871103384458031</v>
+        <v>0.1440483515229198</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.0037300777754</v>
+        <v>25.627053</v>
       </c>
       <c r="N4">
-        <v>25.0037300777754</v>
+        <v>76.881159</v>
       </c>
       <c r="O4">
-        <v>0.6549976037377102</v>
+        <v>0.6506649152692259</v>
       </c>
       <c r="P4">
-        <v>0.6549976037377102</v>
+        <v>0.6506649152692259</v>
       </c>
       <c r="Q4">
-        <v>247.4884962162302</v>
+        <v>393.05501081101</v>
       </c>
       <c r="R4">
-        <v>247.4884962162302</v>
+        <v>3537.49509729909</v>
       </c>
       <c r="S4">
-        <v>0.06465549063067212</v>
+        <v>0.09372720843833229</v>
       </c>
       <c r="T4">
-        <v>0.06465549063067212</v>
+        <v>0.09372720843833229</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.89806302685257</v>
+        <v>15.33750333333333</v>
       </c>
       <c r="H5">
-        <v>9.89806302685257</v>
+        <v>46.01251</v>
       </c>
       <c r="I5">
-        <v>0.09871103384458031</v>
+        <v>0.1440483515229198</v>
       </c>
       <c r="J5">
-        <v>0.09871103384458031</v>
+        <v>0.1440483515229198</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.71525572391355</v>
+        <v>3.230753333333334</v>
       </c>
       <c r="N5">
-        <v>2.71525572391355</v>
+        <v>9.692260000000001</v>
       </c>
       <c r="O5">
-        <v>0.07112882706565796</v>
+        <v>0.08202807571705974</v>
       </c>
       <c r="P5">
-        <v>0.07112882706565796</v>
+        <v>0.08202807571705972</v>
       </c>
       <c r="Q5">
-        <v>26.87577228931852</v>
+        <v>49.55169001917778</v>
       </c>
       <c r="R5">
-        <v>26.87577228931852</v>
+        <v>445.9652101726001</v>
       </c>
       <c r="S5">
-        <v>0.007021200055803463</v>
+        <v>0.01181600908563971</v>
       </c>
       <c r="T5">
-        <v>0.007021200055803463</v>
+        <v>0.0118160090856397</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>64.74859388046271</v>
+        <v>64.92210766666668</v>
       </c>
       <c r="H6">
-        <v>64.74859388046271</v>
+        <v>194.766323</v>
       </c>
       <c r="I6">
-        <v>0.6457223625050714</v>
+        <v>0.609742171429695</v>
       </c>
       <c r="J6">
-        <v>0.6457223625050714</v>
+        <v>0.6097421714296949</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.66385036226035</v>
+        <v>7.731686</v>
       </c>
       <c r="N6">
-        <v>7.66385036226035</v>
+        <v>23.195058</v>
       </c>
       <c r="O6">
-        <v>0.2007621905639899</v>
+        <v>0.1963057092861306</v>
       </c>
       <c r="P6">
-        <v>0.2007621905639899</v>
+        <v>0.1963057092861306</v>
       </c>
       <c r="Q6">
-        <v>496.2235346666324</v>
+        <v>501.9573509368594</v>
       </c>
       <c r="R6">
-        <v>496.2235346666324</v>
+        <v>4517.616158431734</v>
       </c>
       <c r="S6">
-        <v>0.1296366359926729</v>
+        <v>0.1196958694441717</v>
       </c>
       <c r="T6">
-        <v>0.1296366359926729</v>
+        <v>0.1196958694441717</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>64.74859388046271</v>
+        <v>64.92210766666668</v>
       </c>
       <c r="H7">
-        <v>64.74859388046271</v>
+        <v>194.766323</v>
       </c>
       <c r="I7">
-        <v>0.6457223625050714</v>
+        <v>0.609742171429695</v>
       </c>
       <c r="J7">
-        <v>0.6457223625050714</v>
+        <v>0.6097421714296949</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.79093719811019</v>
+        <v>2.796453333333333</v>
       </c>
       <c r="N7">
-        <v>2.79093719811019</v>
+        <v>8.38936</v>
       </c>
       <c r="O7">
-        <v>0.07311137863264187</v>
+        <v>0.07100129972758389</v>
       </c>
       <c r="P7">
-        <v>0.07311137863264187</v>
+        <v>0.07100129972758387</v>
       </c>
       <c r="Q7">
-        <v>180.7092591863132</v>
+        <v>181.5516443914756</v>
       </c>
       <c r="R7">
-        <v>180.7092591863132</v>
+        <v>1633.96479952328</v>
       </c>
       <c r="S7">
-        <v>0.04720965213667231</v>
+        <v>0.04329248667022761</v>
       </c>
       <c r="T7">
-        <v>0.04720965213667231</v>
+        <v>0.04329248667022759</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>64.74859388046271</v>
+        <v>64.92210766666668</v>
       </c>
       <c r="H8">
-        <v>64.74859388046271</v>
+        <v>194.766323</v>
       </c>
       <c r="I8">
-        <v>0.6457223625050714</v>
+        <v>0.609742171429695</v>
       </c>
       <c r="J8">
-        <v>0.6457223625050714</v>
+        <v>0.6097421714296949</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.0037300777754</v>
+        <v>25.627053</v>
       </c>
       <c r="N8">
-        <v>25.0037300777754</v>
+        <v>76.881159</v>
       </c>
       <c r="O8">
-        <v>0.6549976037377102</v>
+        <v>0.6506649152692259</v>
       </c>
       <c r="P8">
-        <v>0.6549976037377102</v>
+        <v>0.6506649152692259</v>
       </c>
       <c r="Q8">
-        <v>1618.95636430259</v>
+        <v>1663.762294045373</v>
       </c>
       <c r="R8">
-        <v>1618.95636430259</v>
+        <v>14973.86064640836</v>
       </c>
       <c r="S8">
-        <v>0.4229466001206749</v>
+        <v>0.3967378383093763</v>
       </c>
       <c r="T8">
-        <v>0.4229466001206749</v>
+        <v>0.3967378383093762</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>64.74859388046271</v>
+        <v>64.92210766666668</v>
       </c>
       <c r="H9">
-        <v>64.74859388046271</v>
+        <v>194.766323</v>
       </c>
       <c r="I9">
-        <v>0.6457223625050714</v>
+        <v>0.609742171429695</v>
       </c>
       <c r="J9">
-        <v>0.6457223625050714</v>
+        <v>0.6097421714296949</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.71525572391355</v>
+        <v>3.230753333333334</v>
       </c>
       <c r="N9">
-        <v>2.71525572391355</v>
+        <v>9.692260000000001</v>
       </c>
       <c r="O9">
-        <v>0.07112882706565796</v>
+        <v>0.08202807571705974</v>
       </c>
       <c r="P9">
-        <v>0.07112882706565796</v>
+        <v>0.08202807571705972</v>
       </c>
       <c r="Q9">
-        <v>175.8089901492802</v>
+        <v>209.7473157511089</v>
       </c>
       <c r="R9">
-        <v>175.8089901492802</v>
+        <v>1887.725841759981</v>
       </c>
       <c r="S9">
-        <v>0.04592947425505133</v>
+        <v>0.05001597700591944</v>
       </c>
       <c r="T9">
-        <v>0.04592947425505133</v>
+        <v>0.05001597700591942</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.447704777981</v>
+        <v>10.67805633333333</v>
       </c>
       <c r="H10">
-        <v>10.447704777981</v>
+        <v>32.034169</v>
       </c>
       <c r="I10">
-        <v>0.1041924806034908</v>
+        <v>0.1002872748488753</v>
       </c>
       <c r="J10">
-        <v>0.1041924806034908</v>
+        <v>0.1002872748488753</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.66385036226035</v>
+        <v>7.731686</v>
       </c>
       <c r="N10">
-        <v>7.66385036226035</v>
+        <v>23.195058</v>
       </c>
       <c r="O10">
-        <v>0.2007621905639899</v>
+        <v>0.1963057092861306</v>
       </c>
       <c r="P10">
-        <v>0.2007621905639899</v>
+        <v>0.1963057092861306</v>
       </c>
       <c r="Q10">
-        <v>80.06964604751887</v>
+        <v>82.55937865964465</v>
       </c>
       <c r="R10">
-        <v>80.06964604751887</v>
+        <v>743.0344079368019</v>
       </c>
       <c r="S10">
-        <v>0.02091791064625284</v>
+        <v>0.01968696462158158</v>
       </c>
       <c r="T10">
-        <v>0.02091791064625284</v>
+        <v>0.01968696462158158</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.447704777981</v>
+        <v>10.67805633333333</v>
       </c>
       <c r="H11">
-        <v>10.447704777981</v>
+        <v>32.034169</v>
       </c>
       <c r="I11">
-        <v>0.1041924806034908</v>
+        <v>0.1002872748488753</v>
       </c>
       <c r="J11">
-        <v>0.1041924806034908</v>
+        <v>0.1002872748488753</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.79093719811019</v>
+        <v>2.796453333333333</v>
       </c>
       <c r="N11">
-        <v>2.79093719811019</v>
+        <v>8.38936</v>
       </c>
       <c r="O11">
-        <v>0.07311137863264187</v>
+        <v>0.07100129972758389</v>
       </c>
       <c r="P11">
-        <v>0.07311137863264187</v>
+        <v>0.07100129972758387</v>
       </c>
       <c r="Q11">
-        <v>29.15888789974074</v>
+        <v>29.86068622687111</v>
       </c>
       <c r="R11">
-        <v>29.15888789974074</v>
+        <v>268.74617604184</v>
       </c>
       <c r="S11">
-        <v>0.00761765590007601</v>
+        <v>0.007120526860407577</v>
       </c>
       <c r="T11">
-        <v>0.00761765590007601</v>
+        <v>0.007120526860407575</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.447704777981</v>
+        <v>10.67805633333333</v>
       </c>
       <c r="H12">
-        <v>10.447704777981</v>
+        <v>32.034169</v>
       </c>
       <c r="I12">
-        <v>0.1041924806034908</v>
+        <v>0.1002872748488753</v>
       </c>
       <c r="J12">
-        <v>0.1041924806034908</v>
+        <v>0.1002872748488753</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.0037300777754</v>
+        <v>25.627053</v>
       </c>
       <c r="N12">
-        <v>25.0037300777754</v>
+        <v>76.881159</v>
       </c>
       <c r="O12">
-        <v>0.6549976037377102</v>
+        <v>0.6506649152692259</v>
       </c>
       <c r="P12">
-        <v>0.6549976037377102</v>
+        <v>0.6506649152692259</v>
       </c>
       <c r="Q12">
-        <v>261.2315902009213</v>
+        <v>273.647115591319</v>
       </c>
       <c r="R12">
-        <v>261.2315902009213</v>
+        <v>2462.824040321871</v>
       </c>
       <c r="S12">
-        <v>0.06824582512277433</v>
+        <v>0.06525341119212498</v>
       </c>
       <c r="T12">
-        <v>0.06824582512277433</v>
+        <v>0.06525341119212498</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.447704777981</v>
+        <v>10.67805633333333</v>
       </c>
       <c r="H13">
-        <v>10.447704777981</v>
+        <v>32.034169</v>
       </c>
       <c r="I13">
-        <v>0.1041924806034908</v>
+        <v>0.1002872748488753</v>
       </c>
       <c r="J13">
-        <v>0.1041924806034908</v>
+        <v>0.1002872748488753</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.71525572391355</v>
+        <v>3.230753333333334</v>
       </c>
       <c r="N13">
-        <v>2.71525572391355</v>
+        <v>9.692260000000001</v>
       </c>
       <c r="O13">
-        <v>0.07112882706565796</v>
+        <v>0.08202807571705974</v>
       </c>
       <c r="P13">
-        <v>0.07112882706565796</v>
+        <v>0.08202807571705972</v>
       </c>
       <c r="Q13">
-        <v>28.36819020017186</v>
+        <v>34.49816609243778</v>
       </c>
       <c r="R13">
-        <v>28.36819020017186</v>
+        <v>310.48349483194</v>
       </c>
       <c r="S13">
-        <v>0.007411088934387618</v>
+        <v>0.00822637217476112</v>
       </c>
       <c r="T13">
-        <v>0.007411088934387618</v>
+        <v>0.00822637217476112</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.1787551218581</v>
+        <v>15.537021</v>
       </c>
       <c r="H14">
-        <v>15.1787551218581</v>
+        <v>46.611063</v>
       </c>
       <c r="I14">
-        <v>0.1513741230468575</v>
+        <v>0.14592220219851</v>
       </c>
       <c r="J14">
-        <v>0.1513741230468575</v>
+        <v>0.14592220219851</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.66385036226035</v>
+        <v>7.731686</v>
       </c>
       <c r="N14">
-        <v>7.66385036226035</v>
+        <v>23.195058</v>
       </c>
       <c r="O14">
-        <v>0.2007621905639899</v>
+        <v>0.1963057092861306</v>
       </c>
       <c r="P14">
-        <v>0.2007621905639899</v>
+        <v>0.1963057092861306</v>
       </c>
       <c r="Q14">
-        <v>116.3277079393133</v>
+        <v>120.127367747406</v>
       </c>
       <c r="R14">
-        <v>116.3277079393133</v>
+        <v>1081.146309726654</v>
       </c>
       <c r="S14">
-        <v>0.03039020053759005</v>
+        <v>0.02864536140317267</v>
       </c>
       <c r="T14">
-        <v>0.03039020053759005</v>
+        <v>0.02864536140317266</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.1787551218581</v>
+        <v>15.537021</v>
       </c>
       <c r="H15">
-        <v>15.1787551218581</v>
+        <v>46.611063</v>
       </c>
       <c r="I15">
-        <v>0.1513741230468575</v>
+        <v>0.14592220219851</v>
       </c>
       <c r="J15">
-        <v>0.1513741230468575</v>
+        <v>0.14592220219851</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.79093719811019</v>
+        <v>2.796453333333333</v>
       </c>
       <c r="N15">
-        <v>2.79093719811019</v>
+        <v>8.38936</v>
       </c>
       <c r="O15">
-        <v>0.07311137863264187</v>
+        <v>0.07100129972758389</v>
       </c>
       <c r="P15">
-        <v>0.07311137863264187</v>
+        <v>0.07100129972758387</v>
       </c>
       <c r="Q15">
-        <v>42.36295229059934</v>
+        <v>43.44855416552001</v>
       </c>
       <c r="R15">
-        <v>42.36295229059934</v>
+        <v>391.03698748968</v>
       </c>
       <c r="S15">
-        <v>0.01106717082526292</v>
+        <v>0.01036066601520551</v>
       </c>
       <c r="T15">
-        <v>0.01106717082526292</v>
+        <v>0.01036066601520551</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.1787551218581</v>
+        <v>15.537021</v>
       </c>
       <c r="H16">
-        <v>15.1787551218581</v>
+        <v>46.611063</v>
       </c>
       <c r="I16">
-        <v>0.1513741230468575</v>
+        <v>0.14592220219851</v>
       </c>
       <c r="J16">
-        <v>0.1513741230468575</v>
+        <v>0.14592220219851</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.0037300777754</v>
+        <v>25.627053</v>
       </c>
       <c r="N16">
-        <v>25.0037300777754</v>
+        <v>76.881159</v>
       </c>
       <c r="O16">
-        <v>0.6549976037377102</v>
+        <v>0.6506649152692259</v>
       </c>
       <c r="P16">
-        <v>0.6549976037377102</v>
+        <v>0.6506649152692259</v>
       </c>
       <c r="Q16">
-        <v>379.5254959835908</v>
+        <v>398.168060629113</v>
       </c>
       <c r="R16">
-        <v>379.5254959835908</v>
+        <v>3583.512545662017</v>
       </c>
       <c r="S16">
-        <v>0.09914968786358894</v>
+        <v>0.09494645732939236</v>
       </c>
       <c r="T16">
-        <v>0.09914968786358894</v>
+        <v>0.09494645732939234</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.1787551218581</v>
+        <v>15.537021</v>
       </c>
       <c r="H17">
-        <v>15.1787551218581</v>
+        <v>46.611063</v>
       </c>
       <c r="I17">
-        <v>0.1513741230468575</v>
+        <v>0.14592220219851</v>
       </c>
       <c r="J17">
-        <v>0.1513741230468575</v>
+        <v>0.14592220219851</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.71525572391355</v>
+        <v>3.230753333333334</v>
       </c>
       <c r="N17">
-        <v>2.71525572391355</v>
+        <v>9.692260000000001</v>
       </c>
       <c r="O17">
-        <v>0.07112882706565796</v>
+        <v>0.08202807571705974</v>
       </c>
       <c r="P17">
-        <v>0.07112882706565796</v>
+        <v>0.08202807571705972</v>
       </c>
       <c r="Q17">
-        <v>41.21420172650732</v>
+        <v>50.19628238582001</v>
       </c>
       <c r="R17">
-        <v>41.21420172650732</v>
+        <v>451.7665414723801</v>
       </c>
       <c r="S17">
-        <v>0.01076706382041555</v>
+        <v>0.01196971745073948</v>
       </c>
       <c r="T17">
-        <v>0.01076706382041555</v>
+        <v>0.01196971745073948</v>
       </c>
     </row>
   </sheetData>
